--- a/www/templates/help_template.xlsx
+++ b/www/templates/help_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R project\Karimo_ui\www\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R project\Ecobank_project_challenge\www\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC441FA-DD34-4E69-9142-6D6A47F5A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB0636-3D5F-43E0-82E8-8A5CC34B31F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
   <si>
     <t>navtab</t>
   </si>
@@ -60,28 +60,13 @@
     <t>#sidebar-wrapper</t>
   </si>
   <si>
-    <t>#linechart</t>
-  </si>
-  <si>
     <t>#filter</t>
   </si>
   <si>
-    <t xml:space="preserve">.tab-content </t>
-  </si>
-  <si>
     <t>#po_basemap</t>
   </si>
   <si>
     <t>#po_linechart</t>
-  </si>
-  <si>
-    <t>events</t>
-  </si>
-  <si>
-    <t>#eo_basemap</t>
-  </si>
-  <si>
-    <t>#eo_linechart</t>
   </si>
   <si>
     <t>network</t>
@@ -110,10 +95,31 @@
     <t>map</t>
   </si>
   <si>
-    <t>dashboard</t>
-  </si>
-  <si>
-    <t>#customer_age</t>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>#text_history</t>
+  </si>
+  <si>
+    <t>#barchart</t>
+  </si>
+  <si>
+    <t>#productstabs</t>
+  </si>
+  <si>
+    <t>#services_recommendation</t>
+  </si>
+  <si>
+    <t>#sentiment1</t>
+  </si>
+  <si>
+    <t>#sentiment2</t>
+  </si>
+  <si>
+    <t>#cardview</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -548,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -557,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -565,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -574,7 +580,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -582,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -599,16 +605,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -616,16 +622,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -633,16 +639,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -650,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -659,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -667,16 +673,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -684,7 +690,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -693,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -701,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -710,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,16 +724,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -735,16 +741,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -752,16 +758,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -769,16 +775,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -786,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -795,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -803,16 +809,16 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -820,16 +826,16 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -837,16 +843,16 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -854,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -863,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -871,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -880,7 +886,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -888,16 +894,16 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/www/templates/help_template.xlsx
+++ b/www/templates/help_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R project\Ecobank_project_challenge\www\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB0636-3D5F-43E0-82E8-8A5CC34B31F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4301F80C-1F94-4891-BD26-FB1A40CEFB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>navtab</t>
   </si>
@@ -54,44 +54,12 @@
     <t>datasets</t>
   </si>
   <si>
-    <t>#navtabs</t>
-  </si>
-  <si>
     <t>#sidebar-wrapper</t>
   </si>
   <si>
-    <t>#filter</t>
-  </si>
-  <si>
-    <t>#po_basemap</t>
-  </si>
-  <si>
-    <t>#po_linechart</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>#nw_basemap</t>
-  </si>
-  <si>
     <t>_</t>
   </si>
   <si>
-    <r>
-      <t>Lorem Ipsum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
-    </r>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
@@ -120,6 +88,39 @@
   </si>
   <si>
     <t>#cardview</t>
+  </si>
+  <si>
+    <t>This Nav Bar allows users to easily find their way around the application. It offers quick, direct access to the various sections and pages of interest.</t>
+  </si>
+  <si>
+    <t>#map</t>
+  </si>
+  <si>
+    <t>This is the sidebar, containing various elements, including the company logo and the various filters that can be applied to the datas in the dashboard.</t>
+  </si>
+  <si>
+    <t>Here you have real-time access to the customer's discussion history, selected via his unique identifier.</t>
+  </si>
+  <si>
+    <t>This barchart represents the top 5 products that can be recommended to the customer. The products to be recommended are predicted according to the customer's discussion history.</t>
+  </si>
+  <si>
+    <t>This table contains a list of all products that can be recommended to the customer. Products are sorted in order from the most recommendable to the least recommendable.</t>
+  </si>
+  <si>
+    <t>This table contains the topics to which the customer most closely corresponds, and the list of departments within the company to which he or she should be referred.</t>
+  </si>
+  <si>
+    <t>This is a map showing the geographical distribution of customers who have filed claims.</t>
+  </si>
+  <si>
+    <t>This diagram shows the distribution of the feelings of customers who have filed complaints. (Positive, Negative)</t>
+  </si>
+  <si>
+    <t>This diagram shows the emotional breakdown of customers who have filed complaints.</t>
+  </si>
+  <si>
+    <t>This section contains an analytics visualization of the data present in the database.</t>
   </si>
 </sst>
 </file>
@@ -168,9 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,8 +547,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -554,16 +556,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -571,16 +573,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -588,16 +590,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -605,16 +607,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,16 +624,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -639,16 +641,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -656,16 +658,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,16 +675,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -690,221 +692,35 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
